--- a/src/analysis/observations.xlsx
+++ b/src/analysis/observations.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="159">
   <si>
     <t>CALLS</t>
   </si>
@@ -495,9 +495,6 @@
     <t>Find baseline and wait in the morning</t>
   </si>
   <si>
-    <t>Find baseline and wait in the morning. Buy only If last day market negative and nifty down more than 50</t>
-  </si>
-  <si>
     <t>finalBuyCandidate</t>
   </si>
   <si>
@@ -513,10 +510,13 @@
     <t>finalSellCandidate</t>
   </si>
   <si>
-    <t>If market up more than 40 points and going up find baseline or wait till 9:30</t>
+    <t>Find baseline and wait in the morning. Buy only If downtrend, last day market negative and nifty down more than 50</t>
   </si>
   <si>
-    <t>If market down more than 40 points and going down find baseline or wait till 9:30</t>
+    <t>If market down more than 40 points and going down find baseline or wait till 9:30, avoid year high</t>
+  </si>
+  <si>
+    <t>If market up more than 40 points and going up find baseline or wait till 9:30, check for year low</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1224,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1458,6 +1464,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="%" xfId="1"/>
@@ -2285,12 +2292,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2091194472"/>
-        <c:axId val="-2100383784"/>
+        <c:axId val="2056800088"/>
+        <c:axId val="-2143710312"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2091194472"/>
+        <c:axId val="2056800088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100383784"/>
+        <c:crossAx val="-2143710312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100383784"/>
+        <c:axId val="-2143710312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091194472"/>
+        <c:crossAx val="2056800088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2722,12 +2729,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2100336872"/>
-        <c:axId val="-2100966952"/>
+        <c:axId val="2044978328"/>
+        <c:axId val="-2144475720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2100336872"/>
+        <c:axId val="2044978328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100966952"/>
+        <c:crossAx val="-2144475720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2755,7 +2762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100966952"/>
+        <c:axId val="-2144475720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +2791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100336872"/>
+        <c:crossAx val="2044978328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3159,12 +3166,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2079963368"/>
-        <c:axId val="-2079960360"/>
+        <c:axId val="-2128459240"/>
+        <c:axId val="-2128456232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2079963368"/>
+        <c:axId val="-2128459240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,7 +3191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079960360"/>
+        <c:crossAx val="-2128456232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3192,7 +3199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079960360"/>
+        <c:axId val="-2128456232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079963368"/>
+        <c:crossAx val="-2128459240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3596,12 +3603,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2079927112"/>
-        <c:axId val="-2079924104"/>
+        <c:axId val="-2111051384"/>
+        <c:axId val="-2111048376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2079927112"/>
+        <c:axId val="-2111051384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079924104"/>
+        <c:crossAx val="-2111048376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3629,7 +3636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079924104"/>
+        <c:axId val="-2111048376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079927112"/>
+        <c:crossAx val="-2111051384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3722,7 +3729,7 @@
         <xdr:cNvPr id="3" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3767,7 @@
         <xdr:cNvPr id="4" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3803,7 +3810,7 @@
         <xdr:cNvPr id="2" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3841,7 +3848,7 @@
         <xdr:cNvPr id="3" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14095,7 +14102,7 @@
       </c>
       <c r="T2" s="71">
         <f ca="1">TODAY()</f>
-        <v>43316</v>
+        <v>43318</v>
       </c>
       <c r="U2" s="2"/>
     </row>
@@ -22770,7 +22777,7 @@
       </c>
       <c r="T2" s="71">
         <f ca="1">TODAY()</f>
-        <v>43316</v>
+        <v>43318</v>
       </c>
       <c r="U2" s="2"/>
     </row>
@@ -26281,7 +26288,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -26344,23 +26351,32 @@
         <v>80</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="C22" t="s">
         <v>81</v>
       </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
         <v>82</v>
       </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="C24" t="s">
         <v>83</v>
       </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
@@ -26436,10 +26452,10 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="77" t="s">
         <v>152</v>
-      </c>
-      <c r="F37" s="77" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -26478,7 +26494,7 @@
         <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -26492,7 +26508,7 @@
         <v>148</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -26506,7 +26522,7 @@
         <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -26530,7 +26546,7 @@
         <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -26631,7 +26647,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -26660,7 +26676,7 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="C14" t="s">
+      <c r="C14" s="91" t="s">
         <v>112</v>
       </c>
     </row>
@@ -26694,23 +26710,32 @@
         <v>128</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="C21" t="s">
         <v>129</v>
       </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="C22" t="s">
         <v>130</v>
       </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
         <v>131</v>
       </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
@@ -26748,7 +26773,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" t="s">
+      <c r="C31" s="91" t="s">
         <v>135</v>
       </c>
       <c r="D31" t="s">
@@ -26756,7 +26781,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" t="s">
+      <c r="C32" s="91" t="s">
         <v>136</v>
       </c>
       <c r="D32" t="s">
@@ -26789,10 +26814,10 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -26811,13 +26836,13 @@
         <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -26831,7 +26856,7 @@
         <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -26845,7 +26870,7 @@
         <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -26859,7 +26884,7 @@
         <v>149</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -26877,13 +26902,13 @@
         <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:6">

--- a/src/analysis/observations.xlsx
+++ b/src/analysis/observations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25600" windowHeight="16060" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data Nifty" sheetId="2" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="169">
   <si>
     <t>CALLS</t>
   </si>
@@ -513,10 +513,40 @@
     <t>Find baseline and wait in the morning. Buy only If downtrend, last day market negative and nifty down more than 50</t>
   </si>
   <si>
-    <t>If market down more than 40 points and going down find baseline or wait till 9:30, avoid year high</t>
+    <t>If market up more than 40 points and going up find baseline or wait till 9:30, check for year low</t>
   </si>
   <si>
-    <t>If market up more than 40 points and going up find baseline or wait till 9:30, check for year low</t>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>Don’t</t>
+  </si>
+  <si>
+    <t>find baseline or wait till 9:30</t>
+  </si>
+  <si>
+    <t>upTrendCandidate-1-YearHigh</t>
+  </si>
+  <si>
+    <t>If market down more than 40 points and going down find baseline or wait till 9:30, avoid year high and at most 1% only</t>
+  </si>
+  <si>
+    <t>Avoid year high and at most 1% only</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>vol &gt; 400</t>
+  </si>
+  <si>
+    <t>OI should not be down drastically(check current and next month)</t>
+  </si>
+  <si>
+    <t>If contract drastically high OI should also drastically high(check current and next month)</t>
+  </si>
+  <si>
+    <t>OI should not be down drastically(check current and next month), Avoid downtairs</t>
   </si>
 </sst>
 </file>
@@ -527,7 +557,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,8 +736,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1234,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1223,8 +1270,31 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1425,6 +1495,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,9 +1540,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="55">
     <cellStyle name="%" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1496,6 +1571,29 @@
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -2292,12 +2390,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2056800088"/>
-        <c:axId val="-2143710312"/>
+        <c:axId val="-2115125416"/>
+        <c:axId val="-2102089336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2056800088"/>
+        <c:axId val="-2115125416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143710312"/>
+        <c:crossAx val="-2102089336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2325,7 +2423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143710312"/>
+        <c:axId val="-2102089336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056800088"/>
+        <c:crossAx val="-2115125416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,12 +2827,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2044978328"/>
-        <c:axId val="-2144475720"/>
+        <c:axId val="-2102154120"/>
+        <c:axId val="-2102157144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2044978328"/>
+        <c:axId val="-2102154120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,7 +2852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144475720"/>
+        <c:crossAx val="-2102157144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2762,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144475720"/>
+        <c:axId val="-2102157144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044978328"/>
+        <c:crossAx val="-2102154120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,12 +3264,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2128459240"/>
-        <c:axId val="-2128456232"/>
+        <c:axId val="-2102282968"/>
+        <c:axId val="-2102285992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2128459240"/>
+        <c:axId val="-2102282968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,7 +3289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128456232"/>
+        <c:crossAx val="-2102285992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3199,7 +3297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128456232"/>
+        <c:axId val="-2102285992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128459240"/>
+        <c:crossAx val="-2102282968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,12 +3701,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2111051384"/>
-        <c:axId val="-2111048376"/>
+        <c:axId val="-2102318920"/>
+        <c:axId val="-2102321944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2111051384"/>
+        <c:axId val="-2102318920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111048376"/>
+        <c:crossAx val="-2102321944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3636,7 +3734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111048376"/>
+        <c:axId val="-2102321944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111051384"/>
+        <c:crossAx val="-2102318920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3729,7 +3827,7 @@
         <xdr:cNvPr id="3" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3865,7 @@
         <xdr:cNvPr id="4" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3810,7 +3908,7 @@
         <xdr:cNvPr id="2" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3848,7 +3946,7 @@
         <xdr:cNvPr id="3" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3880,8 +3978,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:H48" totalsRowShown="0">
-  <autoFilter ref="B2:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:H49" totalsRowShown="0">
+  <autoFilter ref="B2:H49"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Method"/>
     <tableColumn id="2" name="Result"/>
@@ -14053,11 +14151,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88"/>
       <c r="T1" s="65" t="s">
         <v>37</v>
       </c>
@@ -14102,7 +14200,7 @@
       </c>
       <c r="T2" s="71">
         <f ca="1">TODAY()</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="U2" s="2"/>
     </row>
@@ -14140,29 +14238,29 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="83" t="str">
+      <c r="D4" s="89" t="str">
         <f>'Data Nifty'!C3</f>
         <v xml:space="preserve">View Options Contracts for: </v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="87">
+      <c r="M4" s="93">
         <f>'Data Nifty'!O3</f>
         <v>0</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="28">
@@ -16729,24 +16827,24 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="79" t="s">
+      <c r="E75" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="79" t="s">
+      <c r="O75" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="79"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="85"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -17233,7 +17331,7 @@
         <f>L20</f>
         <v>11100</v>
       </c>
-      <c r="T94" s="78"/>
+      <c r="T94" s="84"/>
       <c r="U94" s="58"/>
       <c r="V94"/>
     </row>
@@ -17301,7 +17399,7 @@
         <f>IF(I20&lt;G20,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
-      <c r="T95" s="78"/>
+      <c r="T95" s="84"/>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:22" ht="17">
@@ -22728,11 +22826,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88"/>
       <c r="T1" s="65" t="s">
         <v>37</v>
       </c>
@@ -22777,7 +22875,7 @@
       </c>
       <c r="T2" s="71">
         <f ca="1">TODAY()</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="U2" s="2"/>
     </row>
@@ -22815,29 +22913,29 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="83" t="str">
+      <c r="D4" s="89" t="str">
         <f>'Data BNF'!C3</f>
         <v xml:space="preserve">OR </v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="87">
+      <c r="M4" s="93">
         <f>'Data BNF'!O3</f>
         <v>0</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="28">
@@ -25404,24 +25502,24 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="79" t="s">
+      <c r="E75" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="79" t="s">
+      <c r="O75" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="79"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="85"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -25908,7 +26006,7 @@
         <f>L20</f>
         <v>23100</v>
       </c>
-      <c r="T94" s="78"/>
+      <c r="T94" s="84"/>
       <c r="U94" s="58"/>
       <c r="V94"/>
     </row>
@@ -25976,7 +26074,7 @@
         <f>IF(I20&lt;G20,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
-      <c r="T95" s="78"/>
+      <c r="T95" s="84"/>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:22" ht="17">
@@ -26216,10 +26314,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H48"/>
+  <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -26259,13 +26357,25 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="C4" t="s">
+      <c r="C4" s="78" t="s">
         <v>63</v>
       </c>
+      <c r="D4" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" t="s">
+      <c r="C5" s="78" t="s">
         <v>64</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -26288,190 +26398,265 @@
         <v>68</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="C10" t="s">
+      <c r="C10" s="78" t="s">
         <v>69</v>
       </c>
+      <c r="D10" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="C11" t="s">
+      <c r="C11" s="81" t="s">
         <v>70</v>
       </c>
+      <c r="D11" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="C12" t="s">
+      <c r="C12" s="78" t="s">
         <v>71</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="C15" t="s">
+    <row r="16" spans="2:8">
+      <c r="C16" s="78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
+      <c r="D16" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="C17" t="s">
+    <row r="18" spans="2:6">
+      <c r="C18" s="78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="C18" t="s">
+      <c r="D18" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="C19" s="78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+      <c r="D19" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="C20" t="s">
+    <row r="21" spans="2:6">
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
+      <c r="D21" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F22" s="77" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>154</v>
+        <v>81</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="C26" t="s">
+    <row r="27" spans="2:6">
+      <c r="C27" s="78" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="C29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="C31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="C32" t="s">
+      <c r="F32" s="77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="78" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="C33" t="s">
+      <c r="E33" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="C34" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" s="78" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
+      <c r="E34" s="79" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="78" t="s">
         <v>148</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="C37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F38" s="77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="C38" t="s">
+    <row r="39" spans="2:6">
+      <c r="C39" s="78" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="C39" t="s">
-        <v>96</v>
       </c>
       <c r="D39" t="s">
         <v>148</v>
@@ -26479,13 +26664,10 @@
       <c r="E39" t="s">
         <v>148</v>
       </c>
-      <c r="F39" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="C40" t="s">
-        <v>97</v>
+      <c r="C40" s="78" t="s">
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>148</v>
@@ -26494,12 +26676,12 @@
         <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="C41" t="s">
-        <v>98</v>
+      <c r="C41" s="78" t="s">
+        <v>97</v>
       </c>
       <c r="D41" t="s">
         <v>148</v>
@@ -26512,8 +26694,8 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="C42" t="s">
-        <v>99</v>
+      <c r="C42" s="78" t="s">
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>148</v>
@@ -26526,41 +26708,55 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="C43" t="s">
-        <v>100</v>
+      <c r="C43" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="C44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="C45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>148</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>105</v>
       </c>
     </row>
@@ -26582,8 +26778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -26626,11 +26822,23 @@
       <c r="C4" t="s">
         <v>107</v>
       </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="C5" t="s">
         <v>108</v>
       </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
@@ -26647,23 +26855,44 @@
         <v>113</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="C9" t="s">
         <v>125</v>
       </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
         <v>126</v>
       </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="C11" t="s">
         <v>127</v>
       </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="C12" t="s">
@@ -26676,8 +26905,14 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="78" t="s">
         <v>112</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -26689,11 +26924,23 @@
       <c r="C16" t="s">
         <v>116</v>
       </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="C17" t="s">
         <v>117</v>
       </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
@@ -26720,13 +26967,19 @@
       <c r="D21" t="s">
         <v>149</v>
       </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="C22" t="s">
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -26734,7 +26987,10 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -26746,11 +27002,23 @@
       <c r="C25" t="s">
         <v>85</v>
       </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="C26" t="s">
         <v>86</v>
       </c>
+      <c r="D26" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
@@ -26771,48 +27039,66 @@
       <c r="B30" t="s">
         <v>121</v>
       </c>
+      <c r="F30" s="77" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="78" t="s">
         <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
       </c>
+      <c r="E31" s="79" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="78" t="s">
         <v>136</v>
       </c>
       <c r="D32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="C33" t="s">
+      <c r="E32" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="C33" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="C34" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="78" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="E34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="H34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="C35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>155</v>
       </c>
@@ -26820,108 +27106,114 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:8">
       <c r="C37" t="s">
         <v>140</v>
       </c>
       <c r="D37" t="s">
         <v>149</v>
       </c>
-      <c r="E37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="E37" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="C38" t="s">
         <v>141</v>
       </c>
-      <c r="D38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" t="s">
-        <v>154</v>
+      <c r="D38" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:8">
       <c r="C39" t="s">
         <v>142</v>
       </c>
       <c r="D39" t="s">
         <v>149</v>
       </c>
-      <c r="E39" t="s">
-        <v>149</v>
+      <c r="E39" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="F39" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:8">
       <c r="C40" t="s">
         <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>149</v>
       </c>
-      <c r="E40" t="s">
-        <v>149</v>
+      <c r="E40" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="F40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:8">
       <c r="C41" t="s">
         <v>144</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
       </c>
-      <c r="E41" t="s">
-        <v>149</v>
+      <c r="E41" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="F41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:8">
       <c r="C42" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="E42" s="79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="C43" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="E43" s="79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="C44" t="s">
         <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="E44" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:8">
       <c r="B46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
         <v>124</v>
       </c>
